--- a/Elin_SukutsuArena/LangMod/JP/SourceStat.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/SourceStat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">p/10</t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,2,3,4,5,6,7,8,9</t>
-  </si>
-  <si>
     <t xml:space="preserve">condition</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
     <t xml:space="preserve">Elin_SukutsuArena.Conditions.ConAstarothTyranny</t>
   </si>
   <si>
+    <t xml:space="preserve">SPD,-1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
@@ -178,6 +178,9 @@
     <t xml:space="preserve">Elin_SukutsuArena.Conditions.ConAstarothDenial</t>
   </si>
   <si>
+    <t xml:space="preserve">STR,-1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">アスタロトの権能により、筋力が大幅に低下している。</t>
   </si>
   <si>
@@ -196,6 +199,45 @@
     <t xml:space="preserve">Elin_SukutsuArena.Conditions.ConAstarothDeletion</t>
   </si>
   <si>
+    <t xml:space="preserve">MAG,-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アスタロトの権能により、魔力が消し去られている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your magical power is erased by Astaroth's power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuResCold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷気耐性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseBuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resCold,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">#1</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -203,8 +245,13 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">アスタロトの権能により、魔力が消し去られている。</t>
-    </r>
+      <t xml:space="preserve">は耐性の加護を得た。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 gains resistance protection.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -212,7 +259,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">MP</t>
+      <t xml:space="preserve">#1</t>
     </r>
     <r>
       <rPr>
@@ -221,8 +268,112 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">が</t>
-    </r>
+      <t xml:space="preserve">の耐性の加護が消えた。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1's resistance protection fades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷気への耐性が上昇している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance to cold is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuResDarkness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻惑耐性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darkness Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resMind,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幻惑への耐性が上昇している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance to mind is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuResChaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">混沌耐性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resChaos,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">混沌への耐性が上昇している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance to chaos is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuResSound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轟音耐性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resSound,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">轟音への耐性が上昇している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance to sound is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuResImpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">衝撃耐性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resImpact,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">衝撃への耐性が上昇している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance to impact is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuResCut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出血耐性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resCut,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出血への耐性が上昇している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance to cut is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuPVBuff</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -230,7 +381,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t xml:space="preserve">PV</t>
     </r>
     <r>
       <rPr>
@@ -239,35 +390,14 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">になる。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Your magical power is erased by Astaroth's power. MP is reduced to 0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConSukutsuResCold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冷気耐性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaseBuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p/15+8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resCold,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff</t>
+      <t xml:space="preserve">強化</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PV Buff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV,30</t>
   </si>
   <si>
     <r>
@@ -286,11 +416,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">は耐性の加護を得た。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 gains resistance protection.</t>
+      <t xml:space="preserve">の防御力が上昇した。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1's defense is increased.</t>
   </si>
   <si>
     <r>
@@ -309,112 +439,22 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の耐性の加護が消えた。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#1's resistance protection fades.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冷気への耐性が上昇している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance to cold is increased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConSukutsuResDarkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻惑耐性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darkness Resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resMind,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幻惑への耐性が上昇している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance to mind is increased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConSukutsuResChaos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">混沌耐性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaos Resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resChaos,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">混沌への耐性が上昇している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance to chaos is increased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConSukutsuResSound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">轟音耐性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sound Resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resSound,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">轟音への耐性が上昇している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance to sound is increased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConSukutsuResImpact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">衝撃耐性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact Resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resImpact,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">衝撃への耐性が上昇している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance to impact is increased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConSukutsuResCut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出血耐性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut Resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resCut,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出血への耐性が上昇している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance to cut is increased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConSukutsuPVBuff</t>
-  </si>
-  <si>
+      <t xml:space="preserve">の防御力が元に戻った。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1's defense returns to normal.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">一時的に</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -431,14 +471,26 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">強化</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PV Buff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV,30</t>
+      <t xml:space="preserve">が上昇している。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PV is temporarily increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuBoost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">覚醒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awakening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elin_SukutsuArena.Conditions.ConSukutsuBoost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR,30,END,30,DEX,30,SPD,50</t>
   </si>
   <si>
     <r>
@@ -457,11 +509,11 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の防御力が上昇した。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#1's defense is increased.</t>
+      <t xml:space="preserve">は力に目覚めた！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 awakens to power!</t>
   </si>
   <si>
     <r>
@@ -480,13 +532,46 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">の防御力が元に戻った。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#1's defense returns to normal.</t>
-  </si>
-  <si>
+      <t xml:space="preserve">の覚醒が終わった。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1's awakening ends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身体能力が一時的に大幅上昇している。副作用に注意。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical abilities are temporarily enhanced. Beware of side effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuBleed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内出血</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Bleeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elin_SukutsuArena.Conditions.ConSukutsuBleed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debuff</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">#1</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -494,8 +579,13 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">一時的に</t>
-    </r>
+      <t xml:space="preserve">は内出血を起こした。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 suffers internal bleeding.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -503,7 +593,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">PV</t>
+      <t xml:space="preserve">#1</t>
     </r>
     <r>
       <rPr>
@@ -512,11 +602,84 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">が上昇している。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PV is temporarily increased.</t>
+      <t xml:space="preserve">の内出血が止まった。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1's internal bleeding stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">覚醒剤の副作用で内出血している。毎ターンダメージを受ける。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal bleeding from stimulant side effects. Takes damage every turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConSukutsuPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薬物中毒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug Poisoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elin_SukutsuArena.Conditions.ConSukutsuPoison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END,-10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">は薬物中毒を起こした。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 suffers from drug poisoning.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の薬物中毒が治った。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 recovers from drug poisoning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">痛覚遮断薬の副作用で中毒状態。自然回復が阻害される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisoned by painkiller side effects. Natural regeneration is blocked.</t>
   </si>
 </sst>
 </file>
@@ -737,7 +900,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -758,7 +921,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.44"/>
@@ -768,14 +931,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="21.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="13.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="57.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="58.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="54.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="59.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,11 +1150,8 @@
       <c r="I3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,15 +1159,18 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1036,14 +1199,17 @@
       <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,25 +1217,28 @@
         <v>10003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,49 +1246,49 @@
         <v>10011</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>3000</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,49 +1296,49 @@
         <v>10012</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>3000</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,49 +1346,49 @@
         <v>10013</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>3000</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,49 +1396,49 @@
         <v>10014</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>3000</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,49 +1446,49 @@
         <v>10015</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>3000</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,49 +1496,49 @@
         <v>10016</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>3000</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,49 +1546,199 @@
         <v>10020</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>3000</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>10021</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10022</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>10023</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
